--- a/PES/Misc/utilities bill.xlsx
+++ b/PES/Misc/utilities bill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\PES\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C51435-8B44-43B2-9089-4320015C4A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FC502E-F8DD-4650-8E54-3E26165ABF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Phone # (without area Code)</t>
   </si>
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -217,6 +217,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G29"/>
+  <dimension ref="A3:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" activeCellId="1" sqref="G6 J9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,6 +814,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
       <c r="E26" s="6" t="s">
         <v>20</v>
       </c>
@@ -814,11 +824,13 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E27" s="7">
         <v>1</v>
       </c>
@@ -830,14 +842,12 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5">
-        <v>9409612157</v>
+      <c r="A28" s="8"/>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
@@ -848,20 +858,67 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="4"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5">
+        <v>9409612157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A4:A5"/>
@@ -870,18 +927,12 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PES/Misc/utilities bill.xlsx
+++ b/PES/Misc/utilities bill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FC502E-F8DD-4650-8E54-3E26165ABF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E2049-46ED-489A-B22D-462F99D17839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,18 +212,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,19 +523,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -544,7 +544,7 @@
       <c r="C4" s="2">
         <v>35852861</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -555,14 +555,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>1215852861</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
@@ -571,7 +571,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -580,7 +580,7 @@
       <c r="C6" s="2">
         <v>35851097</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -591,14 +591,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>1215851097</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
@@ -607,19 +607,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -628,7 +628,7 @@
       <c r="C11" s="2">
         <v>35890307</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="10">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -639,14 +639,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>1215890307</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="2" t="s">
         <v>5</v>
       </c>
@@ -655,7 +655,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="A13" s="10">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -666,21 +666,21 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>1215881523</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="10">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -689,7 +689,7 @@
       <c r="C15" s="2">
         <v>35881520</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -700,14 +700,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>1215881520</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
@@ -716,19 +716,19 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="E19" s="7">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="E19" s="10">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -739,7 +739,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="A20" s="10">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -748,7 +748,7 @@
       <c r="C20" s="5">
         <v>9885330000</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="2" t="s">
         <v>5</v>
       </c>
@@ -757,26 +757,26 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="E23" s="7">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="E23" s="10">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -787,7 +787,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+      <c r="A24" s="10">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -796,7 +796,7 @@
       <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="2" t="s">
         <v>5</v>
       </c>
@@ -805,7 +805,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -814,24 +814,24 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="E26" s="6" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="10">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -842,14 +842,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="2" t="s">
         <v>5</v>
       </c>
@@ -858,7 +858,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,7 +867,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
@@ -876,19 +876,19 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
+      <c r="A34" s="10">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -899,7 +899,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
@@ -907,18 +907,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A4:A5"/>
@@ -927,12 +921,18 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PES/Misc/utilities bill.xlsx
+++ b/PES/Misc/utilities bill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E2049-46ED-489A-B22D-462F99D17839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B60417-FEC1-4975-87A5-8F57606B23FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Phone # (without area Code)</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>SSGC Nadeem bhai</t>
+  </si>
+  <si>
+    <t>AL551594</t>
   </si>
 </sst>
 </file>
@@ -507,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
@@ -907,12 +910,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A4:A5"/>
@@ -921,18 +930,12 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
